--- a/Data/Results-Ref.xlsx
+++ b/Data/Results-Ref.xlsx
@@ -35826,7 +35826,7 @@
         <v>121.6590381493507</v>
       </c>
       <c r="E568">
-        <v>887115.1983847425</v>
+        <v>106.0949675324675</v>
       </c>
       <c r="F568">
         <v>80.10074269480521</v>
@@ -50601,34 +50601,34 @@
         <v>3</v>
       </c>
       <c r="B808">
-        <v>9.436895709313831e-16</v>
+        <v>9.992007221626409e-16</v>
       </c>
       <c r="C808">
-        <v>-0.1816356320013414</v>
+        <v>-0.1816356320013415</v>
       </c>
       <c r="D808">
-        <v>-0.2938926261462315</v>
+        <v>-0.2938926261462314</v>
       </c>
       <c r="E808">
-        <v>-0.2938926261462317</v>
+        <v>-0.2938926261462316</v>
       </c>
       <c r="F808">
-        <v>-0.1816356320013477</v>
+        <v>-0.1816356320013475</v>
       </c>
       <c r="G808">
-        <v>-4.274358644806853e-15</v>
+        <v>-3.996802888650564e-15</v>
       </c>
       <c r="H808">
-        <v>0.1816356320013387</v>
+        <v>0.1816356320013385</v>
       </c>
       <c r="I808">
-        <v>0.2938926261462375</v>
+        <v>0.2938926261462376</v>
       </c>
       <c r="J808">
         <v>0.2938926261462385</v>
       </c>
       <c r="K808">
-        <v>0.1816356320013411</v>
+        <v>0.181635632001341</v>
       </c>
       <c r="L808">
         <v>9.992007221626409e-16</v>
@@ -50637,40 +50637,40 @@
         <v>-0.181635632001336</v>
       </c>
       <c r="N808">
-        <v>-0.2938926261462365</v>
+        <v>-0.2938926261462367</v>
       </c>
       <c r="O808">
-        <v>-0.2938926261462395</v>
+        <v>-0.2938926261462393</v>
       </c>
       <c r="P808">
-        <v>-0.1816356320013438</v>
+        <v>-0.181635632001344</v>
       </c>
       <c r="Q808">
-        <v>-2.164934898019055e-15</v>
+        <v>-1.998401444325282e-15</v>
       </c>
       <c r="R808">
-        <v>0.1816356320013404</v>
+        <v>0.1816356320013405</v>
       </c>
       <c r="S808">
-        <v>0.2938926261462382</v>
+        <v>0.293892626146238</v>
       </c>
       <c r="T808">
-        <v>0.2938926261462378</v>
+        <v>0.293892626146238</v>
       </c>
       <c r="U808">
-        <v>0.1816356320013394</v>
+        <v>0.181635632001339</v>
       </c>
       <c r="V808">
         <v>5.495603971894525e-15</v>
       </c>
       <c r="W808">
-        <v>-0.1816356320013377</v>
+        <v>-0.1816356320013375</v>
       </c>
       <c r="X808">
-        <v>-0.2938926261462372</v>
+        <v>-0.2938926261462371</v>
       </c>
       <c r="Y808">
-        <v>-0.2938926261462388</v>
+        <v>-0.2938926261462389</v>
       </c>
     </row>
     <row r="809" spans="1:37">
@@ -50678,7 +50678,7 @@
         <v>4</v>
       </c>
       <c r="B809">
-        <v>0.5877852522924688</v>
+        <v>0.587785252292469</v>
       </c>
       <c r="C809">
         <v>0.951056516295153</v>
@@ -50687,103 +50687,103 @@
         <v>0.951056516295153</v>
       </c>
       <c r="E809">
-        <v>0.5877852522924918</v>
+        <v>0.587785252292492</v>
       </c>
       <c r="F809">
-        <v>1.960172475723443e-14</v>
+        <v>1.95980626701772e-14</v>
       </c>
       <c r="G809">
-        <v>-0.5877852522924601</v>
+        <v>-0.58778525229246</v>
       </c>
       <c r="H809">
-        <v>-0.9510565162951496</v>
+        <v>-0.95105651629515</v>
       </c>
       <c r="I809">
-        <v>-0.9510565162951563</v>
+        <v>-0.951056516295156</v>
       </c>
       <c r="J809">
-        <v>-0.5877852522924776</v>
+        <v>-0.587785252292478</v>
       </c>
       <c r="K809">
-        <v>-1.960671208722786e-15</v>
+        <v>-1.95695895608941e-15</v>
       </c>
       <c r="L809">
-        <v>0.5877852522924744</v>
+        <v>0.587785252292474</v>
       </c>
       <c r="M809">
-        <v>0.9510565162951552</v>
+        <v>0.951056516295155</v>
       </c>
       <c r="N809">
-        <v>0.9510565162951596</v>
+        <v>0.95105651629516</v>
       </c>
       <c r="O809">
-        <v>0.5877852522924862</v>
+        <v>0.587785252292486</v>
       </c>
       <c r="P809">
-        <v>1.274132709061515e-14</v>
+        <v>1.27375646724057e-14</v>
       </c>
       <c r="Q809">
-        <v>-0.5877852522924657</v>
+        <v>-0.587785252292466</v>
       </c>
       <c r="R809">
-        <v>-0.9510565162951519</v>
+        <v>-0.951056516295152</v>
       </c>
       <c r="S809">
-        <v>-0.9510565162951542</v>
+        <v>-0.951056516295154</v>
       </c>
       <c r="T809">
         <v>-0.587785252292472</v>
       </c>
       <c r="U809">
-        <v>-2.352198297250752e-14</v>
+        <v>-2.35181703887219e-14</v>
       </c>
       <c r="V809">
-        <v>0.5877852522924569</v>
+        <v>0.587785252292457</v>
       </c>
       <c r="W809">
-        <v>0.9510565162951485</v>
+        <v>0.951056516295149</v>
       </c>
       <c r="X809">
-        <v>0.9510565162951575</v>
+        <v>0.951056516295158</v>
       </c>
       <c r="Y809">
-        <v>0.5877852522924807</v>
+        <v>0.587785252292481</v>
       </c>
       <c r="Z809">
-        <v>5.880929423995873e-15</v>
+        <v>5.87706667463412e-15</v>
       </c>
       <c r="AA809">
-        <v>-0.5877852522924712</v>
+        <v>-0.587785252292471</v>
       </c>
       <c r="AB809">
         <v>-0.951056516295154</v>
       </c>
       <c r="AC809">
-        <v>-0.9510565162951521</v>
+        <v>-0.951056516295152</v>
       </c>
       <c r="AD809">
-        <v>-0.5877852522924895</v>
+        <v>-0.587785252292489</v>
       </c>
       <c r="AE809">
-        <v>-1.666158530588824e-14</v>
+        <v>-1.66576723909504e-14</v>
       </c>
       <c r="AF809">
-        <v>0.5877852522924625</v>
+        <v>0.587785252292462</v>
       </c>
       <c r="AG809">
-        <v>0.9510565162951506</v>
+        <v>0.951056516295151</v>
       </c>
       <c r="AH809">
-        <v>0.9510565162951554</v>
+        <v>0.951056516295155</v>
       </c>
       <c r="AI809">
-        <v>0.5877852522924752</v>
+        <v>0.587785252292475</v>
       </c>
       <c r="AJ809">
-        <v>-9.794682426234047e-16</v>
+        <v>-9.834313231374131e-16</v>
       </c>
       <c r="AK809">
-        <v>-0.5877852522924538</v>
+        <v>-0.587785252292454</v>
       </c>
     </row>
     <row r="811" spans="1:37">

--- a/Data/Results-Ref.xlsx
+++ b/Data/Results-Ref.xlsx
@@ -50601,34 +50601,34 @@
         <v>3</v>
       </c>
       <c r="B808">
-        <v>9.992007221626409e-16</v>
+        <v>9.436895709313831e-16</v>
       </c>
       <c r="C808">
-        <v>-0.1816356320013415</v>
+        <v>-0.1816356320013414</v>
       </c>
       <c r="D808">
-        <v>-0.2938926261462314</v>
+        <v>-0.2938926261462315</v>
       </c>
       <c r="E808">
-        <v>-0.2938926261462316</v>
+        <v>-0.2938926261462317</v>
       </c>
       <c r="F808">
-        <v>-0.1816356320013475</v>
+        <v>-0.1816356320013477</v>
       </c>
       <c r="G808">
-        <v>-3.996802888650564e-15</v>
+        <v>-4.274358644806853e-15</v>
       </c>
       <c r="H808">
-        <v>0.1816356320013385</v>
+        <v>0.1816356320013387</v>
       </c>
       <c r="I808">
-        <v>0.2938926261462376</v>
+        <v>0.2938926261462375</v>
       </c>
       <c r="J808">
         <v>0.2938926261462385</v>
       </c>
       <c r="K808">
-        <v>0.181635632001341</v>
+        <v>0.1816356320013411</v>
       </c>
       <c r="L808">
         <v>9.992007221626409e-16</v>
@@ -50637,40 +50637,40 @@
         <v>-0.181635632001336</v>
       </c>
       <c r="N808">
-        <v>-0.2938926261462367</v>
+        <v>-0.2938926261462365</v>
       </c>
       <c r="O808">
-        <v>-0.2938926261462393</v>
+        <v>-0.2938926261462395</v>
       </c>
       <c r="P808">
-        <v>-0.181635632001344</v>
+        <v>-0.1816356320013438</v>
       </c>
       <c r="Q808">
-        <v>-1.998401444325282e-15</v>
+        <v>-2.164934898019055e-15</v>
       </c>
       <c r="R808">
-        <v>0.1816356320013405</v>
+        <v>0.1816356320013404</v>
       </c>
       <c r="S808">
-        <v>0.293892626146238</v>
+        <v>0.2938926261462382</v>
       </c>
       <c r="T808">
-        <v>0.293892626146238</v>
+        <v>0.2938926261462378</v>
       </c>
       <c r="U808">
-        <v>0.181635632001339</v>
+        <v>0.1816356320013394</v>
       </c>
       <c r="V808">
         <v>5.495603971894525e-15</v>
       </c>
       <c r="W808">
-        <v>-0.1816356320013375</v>
+        <v>-0.1816356320013377</v>
       </c>
       <c r="X808">
-        <v>-0.2938926261462371</v>
+        <v>-0.2938926261462372</v>
       </c>
       <c r="Y808">
-        <v>-0.2938926261462389</v>
+        <v>-0.2938926261462388</v>
       </c>
     </row>
     <row r="809" spans="1:37">
@@ -50678,7 +50678,7 @@
         <v>4</v>
       </c>
       <c r="B809">
-        <v>0.587785252292469</v>
+        <v>0.5877852522924688</v>
       </c>
       <c r="C809">
         <v>0.951056516295153</v>
@@ -50687,103 +50687,103 @@
         <v>0.951056516295153</v>
       </c>
       <c r="E809">
-        <v>0.587785252292492</v>
+        <v>0.5877852522924918</v>
       </c>
       <c r="F809">
-        <v>1.95980626701772e-14</v>
+        <v>1.960172475723443e-14</v>
       </c>
       <c r="G809">
-        <v>-0.58778525229246</v>
+        <v>-0.5877852522924601</v>
       </c>
       <c r="H809">
-        <v>-0.95105651629515</v>
+        <v>-0.9510565162951496</v>
       </c>
       <c r="I809">
-        <v>-0.951056516295156</v>
+        <v>-0.9510565162951563</v>
       </c>
       <c r="J809">
-        <v>-0.587785252292478</v>
+        <v>-0.5877852522924776</v>
       </c>
       <c r="K809">
-        <v>-1.95695895608941e-15</v>
+        <v>-1.960671208722786e-15</v>
       </c>
       <c r="L809">
-        <v>0.587785252292474</v>
+        <v>0.5877852522924744</v>
       </c>
       <c r="M809">
-        <v>0.951056516295155</v>
+        <v>0.9510565162951552</v>
       </c>
       <c r="N809">
-        <v>0.95105651629516</v>
+        <v>0.9510565162951596</v>
       </c>
       <c r="O809">
-        <v>0.587785252292486</v>
+        <v>0.5877852522924862</v>
       </c>
       <c r="P809">
-        <v>1.27375646724057e-14</v>
+        <v>1.274132709061515e-14</v>
       </c>
       <c r="Q809">
-        <v>-0.587785252292466</v>
+        <v>-0.5877852522924657</v>
       </c>
       <c r="R809">
-        <v>-0.951056516295152</v>
+        <v>-0.9510565162951519</v>
       </c>
       <c r="S809">
-        <v>-0.951056516295154</v>
+        <v>-0.9510565162951542</v>
       </c>
       <c r="T809">
         <v>-0.587785252292472</v>
       </c>
       <c r="U809">
-        <v>-2.35181703887219e-14</v>
+        <v>-2.352198297250752e-14</v>
       </c>
       <c r="V809">
-        <v>0.587785252292457</v>
+        <v>0.5877852522924569</v>
       </c>
       <c r="W809">
-        <v>0.951056516295149</v>
+        <v>0.9510565162951485</v>
       </c>
       <c r="X809">
-        <v>0.951056516295158</v>
+        <v>0.9510565162951575</v>
       </c>
       <c r="Y809">
-        <v>0.587785252292481</v>
+        <v>0.5877852522924807</v>
       </c>
       <c r="Z809">
-        <v>5.87706667463412e-15</v>
+        <v>5.880929423995873e-15</v>
       </c>
       <c r="AA809">
-        <v>-0.587785252292471</v>
+        <v>-0.5877852522924712</v>
       </c>
       <c r="AB809">
         <v>-0.951056516295154</v>
       </c>
       <c r="AC809">
-        <v>-0.951056516295152</v>
+        <v>-0.9510565162951521</v>
       </c>
       <c r="AD809">
-        <v>-0.587785252292489</v>
+        <v>-0.5877852522924895</v>
       </c>
       <c r="AE809">
-        <v>-1.66576723909504e-14</v>
+        <v>-1.666158530588824e-14</v>
       </c>
       <c r="AF809">
-        <v>0.587785252292462</v>
+        <v>0.5877852522924625</v>
       </c>
       <c r="AG809">
-        <v>0.951056516295151</v>
+        <v>0.9510565162951506</v>
       </c>
       <c r="AH809">
-        <v>0.951056516295155</v>
+        <v>0.9510565162951554</v>
       </c>
       <c r="AI809">
-        <v>0.587785252292475</v>
+        <v>0.5877852522924752</v>
       </c>
       <c r="AJ809">
-        <v>-9.834313231374131e-16</v>
+        <v>-9.794682426234047e-16</v>
       </c>
       <c r="AK809">
-        <v>-0.587785252292454</v>
+        <v>-0.5877852522924538</v>
       </c>
     </row>
     <row r="811" spans="1:37">

--- a/Data/Results-Ref.xlsx
+++ b/Data/Results-Ref.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="165">
   <si>
     <t>Data</t>
   </si>
@@ -510,15 +510,6 @@
   <si>
     <t>Avg PDCP SDU Delay DL QCI8</t>
   </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Unnamed: 188</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
 </sst>
 </file>
 
@@ -881,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK819"/>
+  <dimension ref="A1:AK804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -50478,930 +50469,6 @@
         <v>35.7280768125608</v>
       </c>
     </row>
-    <row r="806" spans="1:37">
-      <c r="A806" t="s">
-        <v>1</v>
-      </c>
-      <c r="B806" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="807" spans="1:37">
-      <c r="B807" s="2">
-        <v>42947</v>
-      </c>
-      <c r="C807" s="2">
-        <v>42947.04166666666</v>
-      </c>
-      <c r="D807" s="2">
-        <v>42947.08333333334</v>
-      </c>
-      <c r="E807" s="2">
-        <v>42947.125</v>
-      </c>
-      <c r="F807" s="2">
-        <v>42947.16666666666</v>
-      </c>
-      <c r="G807" s="2">
-        <v>42947.20833333334</v>
-      </c>
-      <c r="H807" s="2">
-        <v>42947.25</v>
-      </c>
-      <c r="I807" s="2">
-        <v>42947.29166666666</v>
-      </c>
-      <c r="J807" s="2">
-        <v>42947.33333333334</v>
-      </c>
-      <c r="K807" s="2">
-        <v>42947.375</v>
-      </c>
-      <c r="L807" s="2">
-        <v>42947.41666666666</v>
-      </c>
-      <c r="M807" s="2">
-        <v>42947.45833333334</v>
-      </c>
-      <c r="N807" s="2">
-        <v>42947.5</v>
-      </c>
-      <c r="O807" s="2">
-        <v>42947.54166666666</v>
-      </c>
-      <c r="P807" s="2">
-        <v>42947.58333333334</v>
-      </c>
-      <c r="Q807" s="2">
-        <v>42947.625</v>
-      </c>
-      <c r="R807" s="2">
-        <v>42947.66666666666</v>
-      </c>
-      <c r="S807" s="2">
-        <v>42947.70833333334</v>
-      </c>
-      <c r="T807" s="2">
-        <v>42947.75</v>
-      </c>
-      <c r="U807" s="2">
-        <v>42947.79166666666</v>
-      </c>
-      <c r="V807" s="2">
-        <v>42947.83333333334</v>
-      </c>
-      <c r="W807" s="2">
-        <v>42947.875</v>
-      </c>
-      <c r="X807" s="2">
-        <v>42947.91666666666</v>
-      </c>
-      <c r="Y807" s="2">
-        <v>42947.95833333334</v>
-      </c>
-      <c r="Z807" s="2">
-        <v>42948</v>
-      </c>
-      <c r="AA807" s="2">
-        <v>42948.04166666666</v>
-      </c>
-      <c r="AB807" s="2">
-        <v>42948.08333333334</v>
-      </c>
-      <c r="AC807" s="2">
-        <v>42948.125</v>
-      </c>
-      <c r="AD807" s="2">
-        <v>42948.16666666666</v>
-      </c>
-      <c r="AE807" s="2">
-        <v>42948.20833333334</v>
-      </c>
-      <c r="AF807" s="2">
-        <v>42948.25</v>
-      </c>
-      <c r="AG807" s="2">
-        <v>42948.29166666666</v>
-      </c>
-      <c r="AH807" s="2">
-        <v>42948.33333333334</v>
-      </c>
-      <c r="AI807" s="2">
-        <v>42948.375</v>
-      </c>
-      <c r="AJ807" s="2">
-        <v>42948.41666666666</v>
-      </c>
-      <c r="AK807" s="2">
-        <v>42948.45833333334</v>
-      </c>
-    </row>
-    <row r="808" spans="1:37">
-      <c r="A808" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B808">
-        <v>9.436895709313831e-16</v>
-      </c>
-      <c r="C808">
-        <v>-0.1816356320013414</v>
-      </c>
-      <c r="D808">
-        <v>-0.2938926261462315</v>
-      </c>
-      <c r="E808">
-        <v>-0.2938926261462317</v>
-      </c>
-      <c r="F808">
-        <v>-0.1816356320013477</v>
-      </c>
-      <c r="G808">
-        <v>-4.274358644806853e-15</v>
-      </c>
-      <c r="H808">
-        <v>0.1816356320013387</v>
-      </c>
-      <c r="I808">
-        <v>0.2938926261462375</v>
-      </c>
-      <c r="J808">
-        <v>0.2938926261462385</v>
-      </c>
-      <c r="K808">
-        <v>0.1816356320013411</v>
-      </c>
-      <c r="L808">
-        <v>9.992007221626409e-16</v>
-      </c>
-      <c r="M808">
-        <v>-0.181635632001336</v>
-      </c>
-      <c r="N808">
-        <v>-0.2938926261462365</v>
-      </c>
-      <c r="O808">
-        <v>-0.2938926261462395</v>
-      </c>
-      <c r="P808">
-        <v>-0.1816356320013438</v>
-      </c>
-      <c r="Q808">
-        <v>-2.164934898019055e-15</v>
-      </c>
-      <c r="R808">
-        <v>0.1816356320013404</v>
-      </c>
-      <c r="S808">
-        <v>0.2938926261462382</v>
-      </c>
-      <c r="T808">
-        <v>0.2938926261462378</v>
-      </c>
-      <c r="U808">
-        <v>0.1816356320013394</v>
-      </c>
-      <c r="V808">
-        <v>5.495603971894525e-15</v>
-      </c>
-      <c r="W808">
-        <v>-0.1816356320013377</v>
-      </c>
-      <c r="X808">
-        <v>-0.2938926261462372</v>
-      </c>
-      <c r="Y808">
-        <v>-0.2938926261462388</v>
-      </c>
-    </row>
-    <row r="809" spans="1:37">
-      <c r="A809" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B809">
-        <v>0.5877852522924688</v>
-      </c>
-      <c r="C809">
-        <v>0.951056516295153</v>
-      </c>
-      <c r="D809">
-        <v>0.951056516295153</v>
-      </c>
-      <c r="E809">
-        <v>0.5877852522924918</v>
-      </c>
-      <c r="F809">
-        <v>1.960172475723443e-14</v>
-      </c>
-      <c r="G809">
-        <v>-0.5877852522924601</v>
-      </c>
-      <c r="H809">
-        <v>-0.9510565162951496</v>
-      </c>
-      <c r="I809">
-        <v>-0.9510565162951563</v>
-      </c>
-      <c r="J809">
-        <v>-0.5877852522924776</v>
-      </c>
-      <c r="K809">
-        <v>-1.960671208722786e-15</v>
-      </c>
-      <c r="L809">
-        <v>0.5877852522924744</v>
-      </c>
-      <c r="M809">
-        <v>0.9510565162951552</v>
-      </c>
-      <c r="N809">
-        <v>0.9510565162951596</v>
-      </c>
-      <c r="O809">
-        <v>0.5877852522924862</v>
-      </c>
-      <c r="P809">
-        <v>1.274132709061515e-14</v>
-      </c>
-      <c r="Q809">
-        <v>-0.5877852522924657</v>
-      </c>
-      <c r="R809">
-        <v>-0.9510565162951519</v>
-      </c>
-      <c r="S809">
-        <v>-0.9510565162951542</v>
-      </c>
-      <c r="T809">
-        <v>-0.587785252292472</v>
-      </c>
-      <c r="U809">
-        <v>-2.352198297250752e-14</v>
-      </c>
-      <c r="V809">
-        <v>0.5877852522924569</v>
-      </c>
-      <c r="W809">
-        <v>0.9510565162951485</v>
-      </c>
-      <c r="X809">
-        <v>0.9510565162951575</v>
-      </c>
-      <c r="Y809">
-        <v>0.5877852522924807</v>
-      </c>
-      <c r="Z809">
-        <v>5.880929423995873e-15</v>
-      </c>
-      <c r="AA809">
-        <v>-0.5877852522924712</v>
-      </c>
-      <c r="AB809">
-        <v>-0.951056516295154</v>
-      </c>
-      <c r="AC809">
-        <v>-0.9510565162951521</v>
-      </c>
-      <c r="AD809">
-        <v>-0.5877852522924895</v>
-      </c>
-      <c r="AE809">
-        <v>-1.666158530588824e-14</v>
-      </c>
-      <c r="AF809">
-        <v>0.5877852522924625</v>
-      </c>
-      <c r="AG809">
-        <v>0.9510565162951506</v>
-      </c>
-      <c r="AH809">
-        <v>0.9510565162951554</v>
-      </c>
-      <c r="AI809">
-        <v>0.5877852522924752</v>
-      </c>
-      <c r="AJ809">
-        <v>-9.794682426234047e-16</v>
-      </c>
-      <c r="AK809">
-        <v>-0.5877852522924538</v>
-      </c>
-    </row>
-    <row r="811" spans="1:37">
-      <c r="A811" t="s">
-        <v>1</v>
-      </c>
-      <c r="B811" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="812" spans="1:37">
-      <c r="B812" s="2">
-        <v>42947</v>
-      </c>
-      <c r="C812" s="2">
-        <v>42947.04166666666</v>
-      </c>
-      <c r="D812" s="2">
-        <v>42947.08333333334</v>
-      </c>
-      <c r="E812" s="2">
-        <v>42947.125</v>
-      </c>
-      <c r="F812" s="2">
-        <v>42947.16666666666</v>
-      </c>
-      <c r="G812" s="2">
-        <v>42947.20833333334</v>
-      </c>
-      <c r="H812" s="2">
-        <v>42947.25</v>
-      </c>
-      <c r="I812" s="2">
-        <v>42947.29166666666</v>
-      </c>
-      <c r="J812" s="2">
-        <v>42947.33333333334</v>
-      </c>
-      <c r="K812" s="2">
-        <v>42947.375</v>
-      </c>
-      <c r="L812" s="2">
-        <v>42947.41666666666</v>
-      </c>
-      <c r="M812" s="2">
-        <v>42947.45833333334</v>
-      </c>
-      <c r="N812" s="2">
-        <v>42947.5</v>
-      </c>
-      <c r="O812" s="2">
-        <v>42947.54166666666</v>
-      </c>
-      <c r="P812" s="2">
-        <v>42947.58333333334</v>
-      </c>
-      <c r="Q812" s="2">
-        <v>42947.625</v>
-      </c>
-      <c r="R812" s="2">
-        <v>42947.66666666666</v>
-      </c>
-      <c r="S812" s="2">
-        <v>42947.70833333334</v>
-      </c>
-      <c r="T812" s="2">
-        <v>42947.75</v>
-      </c>
-      <c r="U812" s="2">
-        <v>42947.79166666666</v>
-      </c>
-      <c r="V812" s="2">
-        <v>42947.83333333334</v>
-      </c>
-      <c r="W812" s="2">
-        <v>42947.875</v>
-      </c>
-      <c r="X812" s="2">
-        <v>42947.91666666666</v>
-      </c>
-      <c r="Y812" s="2">
-        <v>42947.95833333334</v>
-      </c>
-      <c r="Z812" s="2">
-        <v>42948</v>
-      </c>
-      <c r="AA812" s="2">
-        <v>42948.04166666666</v>
-      </c>
-      <c r="AB812" s="2">
-        <v>42948.08333333334</v>
-      </c>
-      <c r="AC812" s="2">
-        <v>42948.125</v>
-      </c>
-      <c r="AD812" s="2">
-        <v>42948.16666666666</v>
-      </c>
-      <c r="AE812" s="2">
-        <v>42948.20833333334</v>
-      </c>
-      <c r="AF812" s="2">
-        <v>42948.25</v>
-      </c>
-      <c r="AG812" s="2">
-        <v>42948.29166666666</v>
-      </c>
-      <c r="AH812" s="2">
-        <v>42948.33333333334</v>
-      </c>
-      <c r="AI812" s="2">
-        <v>42948.375</v>
-      </c>
-      <c r="AJ812" s="2">
-        <v>42948.41666666666</v>
-      </c>
-      <c r="AK812" s="2">
-        <v>42948.45833333334</v>
-      </c>
-    </row>
-    <row r="813" spans="1:37">
-      <c r="A813" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B813">
-        <v>265</v>
-      </c>
-      <c r="C813">
-        <v>266</v>
-      </c>
-      <c r="D813">
-        <v>267</v>
-      </c>
-      <c r="E813">
-        <v>268</v>
-      </c>
-      <c r="F813">
-        <v>269</v>
-      </c>
-      <c r="G813">
-        <v>270</v>
-      </c>
-      <c r="H813">
-        <v>271</v>
-      </c>
-      <c r="I813">
-        <v>272</v>
-      </c>
-      <c r="J813">
-        <v>273</v>
-      </c>
-      <c r="K813">
-        <v>274</v>
-      </c>
-      <c r="L813">
-        <v>275</v>
-      </c>
-      <c r="M813">
-        <v>276</v>
-      </c>
-      <c r="N813">
-        <v>277</v>
-      </c>
-      <c r="O813">
-        <v>278</v>
-      </c>
-      <c r="P813">
-        <v>279</v>
-      </c>
-      <c r="Q813">
-        <v>280</v>
-      </c>
-      <c r="R813">
-        <v>281</v>
-      </c>
-      <c r="S813">
-        <v>282</v>
-      </c>
-      <c r="T813">
-        <v>283</v>
-      </c>
-      <c r="U813">
-        <v>284</v>
-      </c>
-      <c r="V813">
-        <v>285</v>
-      </c>
-      <c r="W813">
-        <v>286</v>
-      </c>
-      <c r="X813">
-        <v>287</v>
-      </c>
-      <c r="Y813">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="814" spans="1:37">
-      <c r="A814" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B814">
-        <v>361</v>
-      </c>
-      <c r="C814">
-        <v>362</v>
-      </c>
-      <c r="D814">
-        <v>363</v>
-      </c>
-      <c r="E814">
-        <v>364</v>
-      </c>
-      <c r="F814">
-        <v>365</v>
-      </c>
-      <c r="G814">
-        <v>366</v>
-      </c>
-      <c r="H814">
-        <v>367</v>
-      </c>
-      <c r="I814">
-        <v>368</v>
-      </c>
-      <c r="J814">
-        <v>369</v>
-      </c>
-      <c r="K814">
-        <v>370</v>
-      </c>
-      <c r="L814">
-        <v>371</v>
-      </c>
-      <c r="M814">
-        <v>372</v>
-      </c>
-      <c r="N814">
-        <v>373</v>
-      </c>
-      <c r="O814">
-        <v>374</v>
-      </c>
-      <c r="P814">
-        <v>375</v>
-      </c>
-      <c r="Q814">
-        <v>376</v>
-      </c>
-      <c r="R814">
-        <v>377</v>
-      </c>
-      <c r="S814">
-        <v>378</v>
-      </c>
-      <c r="T814">
-        <v>379</v>
-      </c>
-      <c r="U814">
-        <v>380</v>
-      </c>
-      <c r="V814">
-        <v>381</v>
-      </c>
-      <c r="W814">
-        <v>382</v>
-      </c>
-      <c r="X814">
-        <v>383</v>
-      </c>
-      <c r="Y814">
-        <v>384</v>
-      </c>
-      <c r="Z814">
-        <v>385</v>
-      </c>
-      <c r="AA814">
-        <v>386</v>
-      </c>
-      <c r="AB814">
-        <v>387</v>
-      </c>
-      <c r="AC814">
-        <v>388</v>
-      </c>
-      <c r="AD814">
-        <v>389</v>
-      </c>
-      <c r="AE814">
-        <v>390</v>
-      </c>
-      <c r="AF814">
-        <v>391</v>
-      </c>
-      <c r="AG814">
-        <v>392</v>
-      </c>
-      <c r="AH814">
-        <v>393</v>
-      </c>
-      <c r="AI814">
-        <v>394</v>
-      </c>
-      <c r="AJ814">
-        <v>395</v>
-      </c>
-      <c r="AK814">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="816" spans="1:37">
-      <c r="A816" t="s">
-        <v>1</v>
-      </c>
-      <c r="B816" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="817" spans="1:37">
-      <c r="B817" s="2">
-        <v>42947</v>
-      </c>
-      <c r="C817" s="2">
-        <v>42947.04166666666</v>
-      </c>
-      <c r="D817" s="2">
-        <v>42947.08333333334</v>
-      </c>
-      <c r="E817" s="2">
-        <v>42947.125</v>
-      </c>
-      <c r="F817" s="2">
-        <v>42947.16666666666</v>
-      </c>
-      <c r="G817" s="2">
-        <v>42947.20833333334</v>
-      </c>
-      <c r="H817" s="2">
-        <v>42947.25</v>
-      </c>
-      <c r="I817" s="2">
-        <v>42947.29166666666</v>
-      </c>
-      <c r="J817" s="2">
-        <v>42947.33333333334</v>
-      </c>
-      <c r="K817" s="2">
-        <v>42947.375</v>
-      </c>
-      <c r="L817" s="2">
-        <v>42947.41666666666</v>
-      </c>
-      <c r="M817" s="2">
-        <v>42947.45833333334</v>
-      </c>
-      <c r="N817" s="2">
-        <v>42947.5</v>
-      </c>
-      <c r="O817" s="2">
-        <v>42947.54166666666</v>
-      </c>
-      <c r="P817" s="2">
-        <v>42947.58333333334</v>
-      </c>
-      <c r="Q817" s="2">
-        <v>42947.625</v>
-      </c>
-      <c r="R817" s="2">
-        <v>42947.66666666666</v>
-      </c>
-      <c r="S817" s="2">
-        <v>42947.70833333334</v>
-      </c>
-      <c r="T817" s="2">
-        <v>42947.75</v>
-      </c>
-      <c r="U817" s="2">
-        <v>42947.79166666666</v>
-      </c>
-      <c r="V817" s="2">
-        <v>42947.83333333334</v>
-      </c>
-      <c r="W817" s="2">
-        <v>42947.875</v>
-      </c>
-      <c r="X817" s="2">
-        <v>42947.91666666666</v>
-      </c>
-      <c r="Y817" s="2">
-        <v>42947.95833333334</v>
-      </c>
-      <c r="Z817" s="2">
-        <v>42948</v>
-      </c>
-      <c r="AA817" s="2">
-        <v>42948.04166666666</v>
-      </c>
-      <c r="AB817" s="2">
-        <v>42948.08333333334</v>
-      </c>
-      <c r="AC817" s="2">
-        <v>42948.125</v>
-      </c>
-      <c r="AD817" s="2">
-        <v>42948.16666666666</v>
-      </c>
-      <c r="AE817" s="2">
-        <v>42948.20833333334</v>
-      </c>
-      <c r="AF817" s="2">
-        <v>42948.25</v>
-      </c>
-      <c r="AG817" s="2">
-        <v>42948.29166666666</v>
-      </c>
-      <c r="AH817" s="2">
-        <v>42948.33333333334</v>
-      </c>
-      <c r="AI817" s="2">
-        <v>42948.375</v>
-      </c>
-      <c r="AJ817" s="2">
-        <v>42948.41666666666</v>
-      </c>
-      <c r="AK817" s="2">
-        <v>42948.45833333334</v>
-      </c>
-    </row>
-    <row r="818" spans="1:37">
-      <c r="A818" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B818">
-        <v>1</v>
-      </c>
-      <c r="C818">
-        <v>1</v>
-      </c>
-      <c r="D818">
-        <v>1</v>
-      </c>
-      <c r="E818">
-        <v>1</v>
-      </c>
-      <c r="F818">
-        <v>1</v>
-      </c>
-      <c r="G818">
-        <v>1</v>
-      </c>
-      <c r="H818">
-        <v>1</v>
-      </c>
-      <c r="I818">
-        <v>1</v>
-      </c>
-      <c r="J818">
-        <v>1</v>
-      </c>
-      <c r="K818">
-        <v>1</v>
-      </c>
-      <c r="L818">
-        <v>1</v>
-      </c>
-      <c r="M818">
-        <v>1</v>
-      </c>
-      <c r="N818">
-        <v>1</v>
-      </c>
-      <c r="O818">
-        <v>1</v>
-      </c>
-      <c r="P818">
-        <v>1</v>
-      </c>
-      <c r="Q818">
-        <v>1</v>
-      </c>
-      <c r="R818">
-        <v>1</v>
-      </c>
-      <c r="S818">
-        <v>1</v>
-      </c>
-      <c r="T818">
-        <v>1</v>
-      </c>
-      <c r="U818">
-        <v>1</v>
-      </c>
-      <c r="V818">
-        <v>1</v>
-      </c>
-      <c r="W818">
-        <v>1</v>
-      </c>
-      <c r="X818">
-        <v>1</v>
-      </c>
-      <c r="Y818">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="819" spans="1:37">
-      <c r="A819" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B819">
-        <v>1</v>
-      </c>
-      <c r="C819">
-        <v>1</v>
-      </c>
-      <c r="D819">
-        <v>1</v>
-      </c>
-      <c r="E819">
-        <v>1</v>
-      </c>
-      <c r="F819">
-        <v>1</v>
-      </c>
-      <c r="G819">
-        <v>1</v>
-      </c>
-      <c r="H819">
-        <v>1</v>
-      </c>
-      <c r="I819">
-        <v>1</v>
-      </c>
-      <c r="J819">
-        <v>1</v>
-      </c>
-      <c r="K819">
-        <v>1</v>
-      </c>
-      <c r="L819">
-        <v>1</v>
-      </c>
-      <c r="M819">
-        <v>1</v>
-      </c>
-      <c r="N819">
-        <v>1</v>
-      </c>
-      <c r="O819">
-        <v>1</v>
-      </c>
-      <c r="P819">
-        <v>1</v>
-      </c>
-      <c r="Q819">
-        <v>1</v>
-      </c>
-      <c r="R819">
-        <v>1</v>
-      </c>
-      <c r="S819">
-        <v>1</v>
-      </c>
-      <c r="T819">
-        <v>1</v>
-      </c>
-      <c r="U819">
-        <v>1</v>
-      </c>
-      <c r="V819">
-        <v>1</v>
-      </c>
-      <c r="W819">
-        <v>1</v>
-      </c>
-      <c r="X819">
-        <v>1</v>
-      </c>
-      <c r="Y819">
-        <v>1</v>
-      </c>
-      <c r="Z819">
-        <v>1</v>
-      </c>
-      <c r="AA819">
-        <v>1</v>
-      </c>
-      <c r="AB819">
-        <v>1</v>
-      </c>
-      <c r="AC819">
-        <v>1</v>
-      </c>
-      <c r="AD819">
-        <v>1</v>
-      </c>
-      <c r="AE819">
-        <v>1</v>
-      </c>
-      <c r="AF819">
-        <v>1</v>
-      </c>
-      <c r="AG819">
-        <v>1</v>
-      </c>
-      <c r="AH819">
-        <v>1</v>
-      </c>
-      <c r="AI819">
-        <v>1</v>
-      </c>
-      <c r="AJ819">
-        <v>1</v>
-      </c>
-      <c r="AK819">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
